--- a/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -546,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -573,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -708,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -735,7 +735,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -762,7 +762,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -816,7 +816,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -897,7 +897,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -924,7 +924,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -978,7 +978,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">

--- a/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1564,6 +1564,87 @@
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.391</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>200</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>104.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>200</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45021</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.079</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>200</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/data/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="58">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>4.079</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>106.36</t>
+  </si>
+  <si>
+    <t>3.032</t>
   </si>
 </sst>
 </file>
@@ -540,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,6 +1315,57 @@
         <v>200</v>
       </c>
     </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45343.32275462963</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45343.32275462963</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45343.32275462963</v>
+      </c>
+      <c r="D47" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
